--- a/data/trans_orig/P20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>67542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53635</v>
+        <v>54204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82384</v>
+        <v>84377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06546519647346237</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0519862661700253</v>
+        <v>0.05253762663167715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07985112755524357</v>
+        <v>0.08178215903942225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -765,19 +765,19 @@
         <v>100463</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81709</v>
+        <v>83465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120601</v>
+        <v>119708</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07639116766237583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06213066982056355</v>
+        <v>0.06346598691795442</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09170398398038083</v>
+        <v>0.09102485443218802</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -786,19 +786,19 @@
         <v>168005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144812</v>
+        <v>144000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>193748</v>
+        <v>191208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07158785948036406</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06170529138985188</v>
+        <v>0.06135917996058313</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08255711700301892</v>
+        <v>0.08147474390894989</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>964181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>949339</v>
+        <v>947346</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>978088</v>
+        <v>977519</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9345348035265376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9201488724447565</v>
+        <v>0.9182178409605778</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9480137338299747</v>
+        <v>0.947462373368323</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1192</v>
@@ -836,19 +836,19 @@
         <v>1214650</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1194512</v>
+        <v>1195405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1233404</v>
+        <v>1231648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9236088323376241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9082960160196191</v>
+        <v>0.9089751455678119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9378693301794364</v>
+        <v>0.9365340130820456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2158</v>
@@ -857,19 +857,19 @@
         <v>2178830</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2153087</v>
+        <v>2155627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2202023</v>
+        <v>2202835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9284121405196359</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9174428829969812</v>
+        <v>0.9185252560910503</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9382947086101483</v>
+        <v>0.9386408200394172</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>45033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32788</v>
+        <v>33134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60689</v>
+        <v>59756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02659314634453361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01936210561714261</v>
+        <v>0.0195666714373604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03583813483660239</v>
+        <v>0.03528702435479304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>109</v>
@@ -982,19 +982,19 @@
         <v>114038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95134</v>
+        <v>94538</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>137204</v>
+        <v>134196</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07182719885570774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05992067761164496</v>
+        <v>0.05954505634918983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08641823139049444</v>
+        <v>0.08452345550596577</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -1003,19 +1003,19 @@
         <v>159071</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135463</v>
+        <v>135027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>184090</v>
+        <v>186826</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04848129397805123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.041285873038602</v>
+        <v>0.04115319090340196</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05610627177338428</v>
+        <v>0.05694040959027964</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1648380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1632724</v>
+        <v>1633657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1660625</v>
+        <v>1660279</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9734068536554664</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9641618651633989</v>
+        <v>0.964712975645207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9806378943828574</v>
+        <v>0.9804333285626396</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1445</v>
@@ -1053,19 +1053,19 @@
         <v>1473635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1450469</v>
+        <v>1453477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1492539</v>
+        <v>1493135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9281728011442922</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9135817686095056</v>
+        <v>0.9154765444940343</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9400793223883551</v>
+        <v>0.9404549436508106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3051</v>
@@ -1074,19 +1074,19 @@
         <v>3122015</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3096996</v>
+        <v>3094260</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3145623</v>
+        <v>3146059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9515187060219488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9438937282266158</v>
+        <v>0.9430595904097204</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.958714126961398</v>
+        <v>0.9588468090965986</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15079</v>
+        <v>14553</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34338</v>
+        <v>35325</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04151235451093784</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02739240253783702</v>
+        <v>0.02643684920366841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0623811104397386</v>
+        <v>0.06417409493038562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1199,19 +1199,19 @@
         <v>34840</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24767</v>
+        <v>24868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47446</v>
+        <v>47397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07312933158061811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05198680527331718</v>
+        <v>0.05219807675487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09959012246808686</v>
+        <v>0.09948668088382343</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -1220,19 +1220,19 @@
         <v>57691</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45099</v>
+        <v>44116</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73768</v>
+        <v>74723</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05618083313527803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04391917092578763</v>
+        <v>0.0429612821364101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07183717929233925</v>
+        <v>0.07276701877660563</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>527612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>516125</v>
+        <v>515138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535384</v>
+        <v>535910</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9584876454890622</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9376188895602611</v>
+        <v>0.9358259050696145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.972607597462163</v>
+        <v>0.9735631507963317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>418</v>
@@ -1270,19 +1270,19 @@
         <v>441572</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428966</v>
+        <v>429015</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>451645</v>
+        <v>451544</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9268706684193819</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9004098775319131</v>
+        <v>0.9005133191161765</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9480131947266828</v>
+        <v>0.94780192324513</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>923</v>
@@ -1291,19 +1291,19 @@
         <v>969184</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>953107</v>
+        <v>952152</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>981776</v>
+        <v>982759</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.943819166864722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9281628207076608</v>
+        <v>0.9272329812233943</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9560808290742123</v>
+        <v>0.9570387178635898</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>135426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04134393321758539</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>242</v>
@@ -1416,19 +1416,19 @@
         <v>249341</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07378697910889559</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>378</v>
@@ -1437,19 +1437,19 @@
         <v>384767</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05781798447047931</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3140173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3115097</v>
+        <v>3115527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3161548</v>
+        <v>3160380</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9586560667824147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9510005947665978</v>
+        <v>0.9511320696888642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9651817767626572</v>
+        <v>0.9648249486626171</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3055</v>
@@ -1487,19 +1487,19 @@
         <v>3129856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3097024</v>
+        <v>3098188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3158188</v>
+        <v>3158388</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9262130208911044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9164969147224125</v>
+        <v>0.916841528544834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9345972624402481</v>
+        <v>0.9346564730543541</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6132</v>
@@ -1508,19 +1508,19 @@
         <v>6270029</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6228342</v>
+        <v>6225521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6304507</v>
+        <v>6304579</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9421820155295207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9359177277182572</v>
+        <v>0.9354938163321341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9473629815619754</v>
+        <v>0.9473737179892735</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>100346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81596</v>
+        <v>81925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121773</v>
+        <v>122654</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1029564088585815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08371861345606432</v>
+        <v>0.08405643619295046</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1249411678040921</v>
+        <v>0.1258448005604674</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>127</v>
@@ -1872,19 +1872,19 @@
         <v>134850</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114230</v>
+        <v>111053</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158357</v>
+        <v>156659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1008002302715977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08538655204151928</v>
+        <v>0.08301172683617736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1183716493081889</v>
+        <v>0.1171024487277892</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -1893,19 +1893,19 @@
         <v>235196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204821</v>
+        <v>206859</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>267860</v>
+        <v>270161</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1017090126797462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08857338764101372</v>
+        <v>0.08945483195837449</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1158343054614594</v>
+        <v>0.1168295726490218</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>874297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>852870</v>
+        <v>851989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>893047</v>
+        <v>892718</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8970435911414185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8750588321959079</v>
+        <v>0.8741551994395315</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9162813865439356</v>
+        <v>0.915943563807049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1120</v>
@@ -1943,19 +1943,19 @@
         <v>1202947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1179440</v>
+        <v>1181138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1223567</v>
+        <v>1226744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8991997697284023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.881628350691811</v>
+        <v>0.8828975512722105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9146134479584807</v>
+        <v>0.9169882731638226</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1939</v>
@@ -1964,19 +1964,19 @@
         <v>2077244</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2044580</v>
+        <v>2042279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2107619</v>
+        <v>2105581</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8982909873202538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.884165694538541</v>
+        <v>0.8831704273509789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9114266123589863</v>
+        <v>0.9105451680416257</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>94221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76884</v>
+        <v>75967</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114717</v>
+        <v>113674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04802516405480661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03918828727744204</v>
+        <v>0.03872112946454921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05847222738532448</v>
+        <v>0.05794069354042683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -2089,19 +2089,19 @@
         <v>160201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137832</v>
+        <v>135925</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187236</v>
+        <v>186444</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09113728048916875</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07841170281477527</v>
+        <v>0.07732657988158328</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1065168962280128</v>
+        <v>0.1060663233835881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>239</v>
@@ -2110,19 +2110,19 @@
         <v>254422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226057</v>
+        <v>224758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291206</v>
+        <v>286599</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06839840313513158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06077284215554332</v>
+        <v>0.06042352022918498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07828725581913953</v>
+        <v>0.07704870934023994</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1867689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1847193</v>
+        <v>1848236</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1885026</v>
+        <v>1885943</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9519748359451934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9415277726146756</v>
+        <v>0.9420593064595731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9608117127225578</v>
+        <v>0.9612788705354508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1488</v>
@@ -2160,19 +2160,19 @@
         <v>1597602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1570567</v>
+        <v>1571359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1619971</v>
+        <v>1621878</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9088627195108313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8934831037719871</v>
+        <v>0.8939336766164118</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9215882971852247</v>
+        <v>0.9226734201184166</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3251</v>
@@ -2181,19 +2181,19 @@
         <v>3465290</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3428506</v>
+        <v>3433113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3493655</v>
+        <v>3494954</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9316015968648684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9217127441808607</v>
+        <v>0.92295129065976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.939227157844457</v>
+        <v>0.939576479770815</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>13621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7190</v>
+        <v>6532</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24872</v>
+        <v>23517</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02830698815001076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01494331528491982</v>
+        <v>0.01357511605361869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0516890998910375</v>
+        <v>0.04887342439701168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -2306,19 +2306,19 @@
         <v>43181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31133</v>
+        <v>31734</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58581</v>
+        <v>56919</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09415193846661224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06788221541424284</v>
+        <v>0.06919284858971862</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1277292240824662</v>
+        <v>0.1241052868925814</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2327,19 +2327,19 @@
         <v>56802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42911</v>
+        <v>42183</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72994</v>
+        <v>74733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06043950433367885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0456590020927413</v>
+        <v>0.04488475255466321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07766897883232593</v>
+        <v>0.07951947156816493</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>467560</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>456309</v>
+        <v>457664</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>473991</v>
+        <v>474649</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9716930118499892</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9483109001089625</v>
+        <v>0.9511265756029884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9850566847150801</v>
+        <v>0.9864248839463814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>372</v>
@@ -2377,19 +2377,19 @@
         <v>415450</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>400050</v>
+        <v>401712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>427498</v>
+        <v>426897</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9058480615333878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8722707759175338</v>
+        <v>0.8758947131074185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9321177845857571</v>
+        <v>0.9308071514102814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>799</v>
@@ -2398,19 +2398,19 @@
         <v>883011</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>866819</v>
+        <v>865080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>896902</v>
+        <v>897630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9395604956663212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.922331021167674</v>
+        <v>0.9204805284318349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9543409979072586</v>
+        <v>0.9551152474453368</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>208188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181262</v>
+        <v>181202</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237074</v>
+        <v>239292</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06091391706436295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05303565763067804</v>
+        <v>0.05301814603110189</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06936585018994643</v>
+        <v>0.07001471142614232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>314</v>
@@ -2523,19 +2523,19 @@
         <v>338233</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>298208</v>
+        <v>302897</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>374291</v>
+        <v>375159</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09516337771432086</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08390223526344186</v>
+        <v>0.08522158642617038</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1053087292869822</v>
+        <v>0.1055529378450974</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>506</v>
@@ -2544,19 +2544,19 @@
         <v>546420</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>499008</v>
+        <v>501079</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>591067</v>
+        <v>594960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07837391251035503</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07157350404401322</v>
+        <v>0.07187057261936579</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08477762145955201</v>
+        <v>0.0853360052531708</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3209546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3180660</v>
+        <v>3178442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3236472</v>
+        <v>3236532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.939086082935637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9306341498100535</v>
+        <v>0.9299852885738576</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.946964342369322</v>
+        <v>0.9469818539688981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2980</v>
@@ -2594,19 +2594,19 @@
         <v>3215997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3179939</v>
+        <v>3179071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3256022</v>
+        <v>3251333</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9048366222856792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.894691270713017</v>
+        <v>0.8944470621549027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9160977647365579</v>
+        <v>0.9147784135738296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5989</v>
@@ -2615,19 +2615,19 @@
         <v>6425545</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6380898</v>
+        <v>6377005</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6472957</v>
+        <v>6470886</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.921626087489645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.915222378540448</v>
+        <v>0.9146639947468289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9284264959559867</v>
+        <v>0.9281294273806341</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>55393</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42202</v>
+        <v>42336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71600</v>
+        <v>70385</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07343109607584292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05594520822557414</v>
+        <v>0.0561220681884018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09491643566002023</v>
+        <v>0.09330528624104166</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -2979,19 +2979,19 @@
         <v>82392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65389</v>
+        <v>64712</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>103224</v>
+        <v>102829</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08283411145111697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06574052540966059</v>
+        <v>0.06505894808095175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1037784494563347</v>
+        <v>0.1033809478853901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>128</v>
@@ -3000,19 +3000,19 @@
         <v>137784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114525</v>
+        <v>114708</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161584</v>
+        <v>162020</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07877859048953557</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06548013058118465</v>
+        <v>0.06558454266561632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09238585251306333</v>
+        <v>0.09263560895582931</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>698954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>682747</v>
+        <v>683962</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>712145</v>
+        <v>712011</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9265689039241571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9050835643399796</v>
+        <v>0.9066947137589584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9440547917744259</v>
+        <v>0.9438779318115981</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>821</v>
@@ -3050,19 +3050,19 @@
         <v>912268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>891436</v>
+        <v>891831</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>929271</v>
+        <v>929948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.917165888548883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8962215505436654</v>
+        <v>0.8966190521146101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9342594745903394</v>
+        <v>0.9349410519190484</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1526</v>
@@ -3071,19 +3071,19 @@
         <v>1611223</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1587423</v>
+        <v>1586987</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1634482</v>
+        <v>1634299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9212214095104644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9076141474869367</v>
+        <v>0.9073643910441707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9345198694188154</v>
+        <v>0.9344154573343837</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>82108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65338</v>
+        <v>65306</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100781</v>
+        <v>102771</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0395437572792532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03146721118655999</v>
+        <v>0.03145186694674994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04853669509079156</v>
+        <v>0.04949505420142885</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -3196,19 +3196,19 @@
         <v>143531</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120735</v>
+        <v>121271</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170632</v>
+        <v>169350</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07218786939318864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0607227399060202</v>
+        <v>0.06099253143253833</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08581811327304363</v>
+        <v>0.08517327854007956</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -3217,19 +3217,19 @@
         <v>225639</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198704</v>
+        <v>199141</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>256431</v>
+        <v>261785</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05551210162766074</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04888555891679023</v>
+        <v>0.04899307274919911</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06308766208698884</v>
+        <v>0.06440474687743362</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1994277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1975604</v>
+        <v>1973614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2011047</v>
+        <v>2011079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9604562427207468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9514633049092083</v>
+        <v>0.9505049457985711</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.96853278881344</v>
+        <v>0.96854813305325</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1773</v>
@@ -3267,19 +3267,19 @@
         <v>1844769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1817668</v>
+        <v>1818950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1867565</v>
+        <v>1867029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9278121306068113</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9141818867269568</v>
+        <v>0.9148267214599205</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.93927726009398</v>
+        <v>0.9390074685674619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3648</v>
@@ -3288,19 +3288,19 @@
         <v>3839046</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3808254</v>
+        <v>3802900</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3865981</v>
+        <v>3865544</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9444878983723393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9369123379130111</v>
+        <v>0.9355952531225664</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9511144410832099</v>
+        <v>0.9510069272508009</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>25980</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16187</v>
+        <v>16567</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38160</v>
+        <v>39670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04750570238464412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02959879127101883</v>
+        <v>0.03029295413346382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06977779628758696</v>
+        <v>0.07253879364424648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3413,19 +3413,19 @@
         <v>47416</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35453</v>
+        <v>33442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62427</v>
+        <v>61662</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08634615080498693</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06456040127298365</v>
+        <v>0.06089852734513894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1136809611723886</v>
+        <v>0.1122877649480586</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -3434,19 +3434,19 @@
         <v>73396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57704</v>
+        <v>58086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92880</v>
+        <v>91145</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06696586720181899</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05264859655980444</v>
+        <v>0.05299695830447163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08474243656342424</v>
+        <v>0.083159545748241</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>520906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508726</v>
+        <v>507216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>530699</v>
+        <v>530319</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9524942976153559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.930222203712413</v>
+        <v>0.9274612063557536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9704012087289812</v>
+        <v>0.9697070458665361</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>481</v>
@@ -3484,19 +3484,19 @@
         <v>501724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>486713</v>
+        <v>487478</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>513687</v>
+        <v>515698</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.913653849195013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8863190388276115</v>
+        <v>0.8877122350519414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9354395987270164</v>
+        <v>0.9391014726548611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>961</v>
@@ -3505,19 +3505,19 @@
         <v>1022631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1003147</v>
+        <v>1004882</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1038323</v>
+        <v>1037941</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.933034132798181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9152575634365758</v>
+        <v>0.9168404542517591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9473514034401956</v>
+        <v>0.9470030416955284</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>163481</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138292</v>
+        <v>139326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191956</v>
+        <v>189314</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04840120774021452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04094353023661232</v>
+        <v>0.04124990974577791</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05683165868495314</v>
+        <v>0.05604953462149049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>251</v>
@@ -3630,19 +3630,19 @@
         <v>273339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>243672</v>
+        <v>241432</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>309897</v>
+        <v>307060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07738712033337915</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06898772584791825</v>
+        <v>0.06835356855040425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08773732216715262</v>
+        <v>0.08693417385027118</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>406</v>
@@ -3651,19 +3651,19 @@
         <v>436820</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>395624</v>
+        <v>394153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>477852</v>
+        <v>477688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06321818739811044</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05725621682046377</v>
+        <v>0.05704325926102304</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06915652417999463</v>
+        <v>0.06913278468433881</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3214137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3185662</v>
+        <v>3188304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3239326</v>
+        <v>3238292</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9515987922597855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9431683413150469</v>
+        <v>0.9439504653785098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9590564697633875</v>
+        <v>0.9587500902542221</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3075</v>
@@ -3701,19 +3701,19 @@
         <v>3258761</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3222203</v>
+        <v>3225040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3288428</v>
+        <v>3290668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9226128796666209</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9122626778328474</v>
+        <v>0.9130658261497289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9310122741520818</v>
+        <v>0.9316464314495958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6135</v>
@@ -3722,19 +3722,19 @@
         <v>6472898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6431866</v>
+        <v>6432030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6514094</v>
+        <v>6515565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9367818126018895</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9308434758200053</v>
+        <v>0.930867215315661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9427437831795361</v>
+        <v>0.9429567407389764</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>58237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45656</v>
+        <v>46777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71358</v>
+        <v>72976</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1006630912697948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07891711217033136</v>
+        <v>0.08085421219749761</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1233435110235254</v>
+        <v>0.1261401043910079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -4086,19 +4086,19 @@
         <v>60498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49949</v>
+        <v>49858</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73370</v>
+        <v>72798</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07366051872332023</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06081601400401019</v>
+        <v>0.06070464124085095</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0893320124765197</v>
+        <v>0.08863575156971777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -4107,19 +4107,19 @@
         <v>118735</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103001</v>
+        <v>102735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135911</v>
+        <v>137247</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08482017388122824</v>
+        <v>0.08482017388122826</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07358031750187106</v>
+        <v>0.07339005331454564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09708996478372123</v>
+        <v>0.09804453317408875</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>520292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>507171</v>
+        <v>505553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>532873</v>
+        <v>531752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8993369087302053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8766564889764744</v>
+        <v>0.873859895608992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9210828878296686</v>
+        <v>0.9191457878025026</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1318</v>
@@ -4157,19 +4157,19 @@
         <v>760817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>747945</v>
+        <v>748517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>771366</v>
+        <v>771457</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9263394812766799</v>
+        <v>0.9263394812766798</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9106679875234804</v>
+        <v>0.9113642484302824</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9391839859959898</v>
+        <v>0.9392953587591495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1930</v>
@@ -4178,19 +4178,19 @@
         <v>1281110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1263934</v>
+        <v>1262598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1296844</v>
+        <v>1297110</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9151798261187717</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9029100352162788</v>
+        <v>0.901955466825911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9264196824981291</v>
+        <v>0.9266099466854542</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>105588</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84465</v>
+        <v>86662</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124908</v>
+        <v>127306</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04733679515980585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03786710970475604</v>
+        <v>0.03885193680489513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05599835334790924</v>
+        <v>0.05707343574270918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -4303,19 +4303,19 @@
         <v>134615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113094</v>
+        <v>115128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158488</v>
+        <v>160628</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06199497826023413</v>
+        <v>0.06199497826023411</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05208386709014406</v>
+        <v>0.05302039168244606</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07298931429103217</v>
+        <v>0.07397457916323273</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>281</v>
@@ -4324,19 +4324,19 @@
         <v>240203</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>211410</v>
+        <v>211699</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>271417</v>
+        <v>271286</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05456736390659203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0480263406602938</v>
+        <v>0.04809194490705352</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06165832572957666</v>
+        <v>0.0616284289673542</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2124978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2105658</v>
+        <v>2103260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2146101</v>
+        <v>2143904</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9526632048401942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9440016466520907</v>
+        <v>0.9429265642572909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9621328902952441</v>
+        <v>0.9611480631951048</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2749</v>
@@ -4374,19 +4374,19 @@
         <v>2036777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2012904</v>
+        <v>2010764</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2058298</v>
+        <v>2056264</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9380050217397659</v>
+        <v>0.9380050217397656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9270106857089674</v>
+        <v>0.9260254208367675</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9479161329098559</v>
+        <v>0.946979608317554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4632</v>
@@ -4395,19 +4395,19 @@
         <v>4161756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4130542</v>
+        <v>4130673</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4190549</v>
+        <v>4190260</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9454326360934079</v>
+        <v>0.945432636093408</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9383416742704235</v>
+        <v>0.9383715710326449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9519736593397065</v>
+        <v>0.9519080550929461</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>40486</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28418</v>
+        <v>28286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56562</v>
+        <v>56684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05689549403481053</v>
+        <v>0.05689549403481051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03993598316375376</v>
+        <v>0.03975022653976821</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07948651192625235</v>
+        <v>0.07965911811601929</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -4520,19 +4520,19 @@
         <v>49799</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37972</v>
+        <v>38266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63517</v>
+        <v>63335</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06776504626728706</v>
+        <v>0.06776504626728708</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05167094109908786</v>
+        <v>0.05207139151444764</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08643152842647901</v>
+        <v>0.08618508621672254</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -4541,19 +4541,19 @@
         <v>90285</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72084</v>
+        <v>74474</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>111405</v>
+        <v>112840</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06241777821627539</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04983459928090973</v>
+        <v>0.05148699331478301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07701912299723211</v>
+        <v>0.07801097174104188</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>671101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655025</v>
+        <v>654903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>683169</v>
+        <v>683301</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9431045059651895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.920513488073748</v>
+        <v>0.9203408818839807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9600640168362465</v>
+        <v>0.9602497734602317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>941</v>
@@ -4591,19 +4591,19 @@
         <v>685078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>671360</v>
+        <v>671542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>696905</v>
+        <v>696611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9322349537327128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9135684715735211</v>
+        <v>0.9138149137832773</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9483290589009121</v>
+        <v>0.9479286084855522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1583</v>
@@ -4612,19 +4612,19 @@
         <v>1356179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1335059</v>
+        <v>1333624</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1374380</v>
+        <v>1371990</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9375822217837249</v>
+        <v>0.9375822217837245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9229808770027681</v>
+        <v>0.9219890282589578</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9501654007190903</v>
+        <v>0.9485130066852168</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>204311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178576</v>
+        <v>178334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231054</v>
+        <v>234723</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05803150394093329</v>
+        <v>0.0580315039409333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05072197356571852</v>
+        <v>0.05065336342523504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06562764040728812</v>
+        <v>0.06666968551673179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>343</v>
@@ -4737,19 +4737,19 @@
         <v>244913</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>218716</v>
+        <v>218286</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>272053</v>
+        <v>276896</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06570284236847404</v>
+        <v>0.06570284236847403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05867494519121184</v>
+        <v>0.05855974582176515</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07298365459219712</v>
+        <v>0.0742828540123185</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>570</v>
@@ -4758,19 +4758,19 @@
         <v>449223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>405967</v>
+        <v>414396</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>489907</v>
+        <v>491743</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06197666231221337</v>
+        <v>0.06197666231221338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05600879345391548</v>
+        <v>0.05717168071555016</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06758947723860208</v>
+        <v>0.06784287371121557</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3316372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3289629</v>
+        <v>3285960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3342107</v>
+        <v>3342349</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9419684960590666</v>
+        <v>0.9419684960590667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.934372359592712</v>
+        <v>0.9333303144832681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9492780264342816</v>
+        <v>0.9493466365747649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5008</v>
@@ -4808,19 +4808,19 @@
         <v>3482672</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3455532</v>
+        <v>3450689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3508869</v>
+        <v>3509299</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.934297157631526</v>
+        <v>0.9342971576315259</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9270163454078035</v>
+        <v>0.9257171459876816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9413250548087881</v>
+        <v>0.9414402541782348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8145</v>
@@ -4829,19 +4829,19 @@
         <v>6799044</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6758360</v>
+        <v>6756524</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6842300</v>
+        <v>6833871</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9380233376877866</v>
+        <v>0.9380233376877867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9324105227613981</v>
+        <v>0.9321571262887847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9439912065460845</v>
+        <v>0.9428283192844499</v>
       </c>
     </row>
     <row r="15">
